--- a/biology/Zoologie/Abantiades/Abantiades.xlsx
+++ b/biology/Zoologie/Abantiades/Abantiades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Abantiades est un genre de papillons de nuit de la famille des Hepialidae. En 2018 (Thomas Simonsen[1]), 37 espèces étaient répertoriées et exclusivement présentes en Australie. Le genre comprend de grandes espèces avec une envergure atteignant 160 mm. Leurs larves se nourrissent de feuilles d'eucalyptus et d'autres arbres.
+Abantiades est un genre de papillons de nuit de la famille des Hepialidae. En 2018 (Thomas Simonsen), 37 espèces étaient répertoriées et exclusivement présentes en Australie. Le genre comprend de grandes espèces avec une envergure atteignant 160 mm. Leurs larves se nourrissent de feuilles d'eucalyptus et d'autres arbres.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 décembre 2023) :
 Abantiades albofasciatus (Swinhoe, 1892)
 Abantiades antenniochrus Moore, 2014
 Abantiades aphenges (Turner, 1904)
@@ -617,10 +633,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Abantiades Herrich-Schäffer, 1855[2].
-Abantiades a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Abantiades Herrich-Schäffer, 1855.
+Abantiades a pour synonymes :
 Bordaia Tindale, 1932
 Bordaja Tindale, 1932
 Pielus Walker, 1856
